--- a/classfiers/nano/welm/smote/nano_welm_lin_smote_results.xlsx
+++ b/classfiers/nano/welm/smote/nano_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4906103286384976</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05741626794258373</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09958506224066391</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4860317950300972</v>
+        <v>0.4698891281805855</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4835680751173709</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07075471698113207</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4349321107388467</v>
+        <v>0.4328342245989305</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4812206572769953</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04950495049504951</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08298755186721993</v>
+        <v>0.1630901287553648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4633795968882602</v>
+        <v>0.4947089947089947</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4812206572769953</v>
+        <v>0.4987080103359173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0761904761904762</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1264822134387352</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4641093474426808</v>
+        <v>0.4614583333333333</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4460093896713615</v>
+        <v>0.4702842377260982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.1350210970464135</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4424991112691077</v>
+        <v>0.455777288354104</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4765258215962441</v>
+        <v>0.4958523135938623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06284224783908968</v>
+        <v>0.07647280823751412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107023086721445</v>
+        <v>0.1312953247579635</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4581903922737985</v>
+        <v>0.4629335938351896</v>
       </c>
     </row>
   </sheetData>
